--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_100ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_100ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2602,28 +2602,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>791.7655165491144</v>
+        <v>854.1670809220277</v>
       </c>
       <c r="AB2" t="n">
-        <v>1083.328509971837</v>
+        <v>1168.709083309583</v>
       </c>
       <c r="AC2" t="n">
-        <v>979.9371574412374</v>
+        <v>1057.169128692016</v>
       </c>
       <c r="AD2" t="n">
-        <v>791765.5165491144</v>
+        <v>854167.0809220277</v>
       </c>
       <c r="AE2" t="n">
-        <v>1083328.509971837</v>
+        <v>1168709.083309583</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.891099833752419e-06</v>
+        <v>3.196998098148084e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.71388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>979937.1574412375</v>
+        <v>1057169.128692016</v>
       </c>
     </row>
     <row r="3">
@@ -2708,28 +2708,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>283.0144576665704</v>
+        <v>314.2579102803129</v>
       </c>
       <c r="AB3" t="n">
-        <v>387.2328666960773</v>
+        <v>429.981536926049</v>
       </c>
       <c r="AC3" t="n">
-        <v>350.2759053833448</v>
+        <v>388.9447025247034</v>
       </c>
       <c r="AD3" t="n">
-        <v>283014.4576665704</v>
+        <v>314257.9102803129</v>
       </c>
       <c r="AE3" t="n">
-        <v>387232.8666960773</v>
+        <v>429981.536926049</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.496412074021772e-06</v>
+        <v>5.910858089818338e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.794444444444444</v>
       </c>
       <c r="AH3" t="n">
-        <v>350275.9053833447</v>
+        <v>388944.7025247034</v>
       </c>
     </row>
     <row r="4">
@@ -2814,28 +2814,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>216.9415123414202</v>
+        <v>248.0996241005906</v>
       </c>
       <c r="AB4" t="n">
-        <v>296.8289479694458</v>
+        <v>339.460851077198</v>
       </c>
       <c r="AC4" t="n">
-        <v>268.5000097773744</v>
+        <v>307.0631838867881</v>
       </c>
       <c r="AD4" t="n">
-        <v>216941.5123414202</v>
+        <v>248099.6241005906</v>
       </c>
       <c r="AE4" t="n">
-        <v>296828.9479694458</v>
+        <v>339460.8510771979</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.072655562668077e-06</v>
+        <v>6.885026298387723e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.975</v>
       </c>
       <c r="AH4" t="n">
-        <v>268500.0097773744</v>
+        <v>307063.1838867881</v>
       </c>
     </row>
     <row r="5">
@@ -2920,28 +2920,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>192.6271054386933</v>
+        <v>223.7852171978637</v>
       </c>
       <c r="AB5" t="n">
-        <v>263.5609037692247</v>
+        <v>306.1928068769769</v>
       </c>
       <c r="AC5" t="n">
-        <v>238.4070210236186</v>
+        <v>276.9701951330323</v>
       </c>
       <c r="AD5" t="n">
-        <v>192627.1054386933</v>
+        <v>223785.2171978637</v>
       </c>
       <c r="AE5" t="n">
-        <v>263560.9037692247</v>
+        <v>306192.8068769769</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.37755401615435e-06</v>
+        <v>7.400472261909246e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.629166666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>238407.0210236186</v>
+        <v>276970.1951330323</v>
       </c>
     </row>
     <row r="6">
@@ -3026,28 +3026,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>176.5621215218562</v>
+        <v>197.305838584997</v>
       </c>
       <c r="AB6" t="n">
-        <v>241.580084037149</v>
+        <v>269.9625528711329</v>
       </c>
       <c r="AC6" t="n">
-        <v>218.5240198764909</v>
+        <v>244.1977057200137</v>
       </c>
       <c r="AD6" t="n">
-        <v>176562.1215218562</v>
+        <v>197305.838584997</v>
       </c>
       <c r="AE6" t="n">
-        <v>241580.084037149</v>
+        <v>269962.5528711329</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.576978028554223e-06</v>
+        <v>7.737608449533132e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.426388888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>218524.0198764909</v>
+        <v>244197.7057200136</v>
       </c>
     </row>
     <row r="7">
@@ -3132,28 +3132,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>171.5349401371347</v>
+        <v>192.2786572002755</v>
       </c>
       <c r="AB7" t="n">
-        <v>234.7016726829865</v>
+        <v>263.0841415169704</v>
       </c>
       <c r="AC7" t="n">
-        <v>212.3020744480565</v>
+        <v>237.9757602915792</v>
       </c>
       <c r="AD7" t="n">
-        <v>171534.9401371347</v>
+        <v>192278.6572002755</v>
       </c>
       <c r="AE7" t="n">
-        <v>234701.6726829865</v>
+        <v>263084.1415169704</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.635915337266402e-06</v>
+        <v>7.83724489415643e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.370833333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>212302.0744480565</v>
+        <v>237975.7602915792</v>
       </c>
     </row>
     <row r="8">
@@ -3238,28 +3238,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>172.0249804442326</v>
+        <v>192.7686975073734</v>
       </c>
       <c r="AB8" t="n">
-        <v>235.3721674502101</v>
+        <v>263.754636284194</v>
       </c>
       <c r="AC8" t="n">
-        <v>212.9085781357418</v>
+        <v>238.5822639792646</v>
       </c>
       <c r="AD8" t="n">
-        <v>172024.9804442326</v>
+        <v>192768.6975073734</v>
       </c>
       <c r="AE8" t="n">
-        <v>235372.1674502101</v>
+        <v>263754.636284194</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.634748261846359e-06</v>
+        <v>7.835271895252998e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.372222222222223</v>
       </c>
       <c r="AH8" t="n">
-        <v>212908.5781357418</v>
+        <v>238582.2639792646</v>
       </c>
     </row>
   </sheetData>
@@ -3535,28 +3535,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>492.5389280661883</v>
+        <v>532.8159480956083</v>
       </c>
       <c r="AB2" t="n">
-        <v>673.91349066409</v>
+        <v>729.022286365059</v>
       </c>
       <c r="AC2" t="n">
-        <v>609.5961329586331</v>
+        <v>659.4454225435821</v>
       </c>
       <c r="AD2" t="n">
-        <v>492538.9280661883</v>
+        <v>532815.9480956083</v>
       </c>
       <c r="AE2" t="n">
-        <v>673913.49066409</v>
+        <v>729022.286365059</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.48135099382376e-06</v>
+        <v>4.297181337513229e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.447222222222223</v>
       </c>
       <c r="AH2" t="n">
-        <v>609596.1329586331</v>
+        <v>659445.4225435822</v>
       </c>
     </row>
     <row r="3">
@@ -3641,28 +3641,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>228.6672069909283</v>
+        <v>258.7683183219194</v>
       </c>
       <c r="AB3" t="n">
-        <v>312.8725606900336</v>
+        <v>354.0582291805509</v>
       </c>
       <c r="AC3" t="n">
-        <v>283.0124426172663</v>
+        <v>320.2674087114041</v>
       </c>
       <c r="AD3" t="n">
-        <v>228667.2069909284</v>
+        <v>258768.3183219194</v>
       </c>
       <c r="AE3" t="n">
-        <v>312872.5606900336</v>
+        <v>354058.229180551</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.954888951717885e-06</v>
+        <v>6.849041122179276e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.3</v>
       </c>
       <c r="AH3" t="n">
-        <v>283012.4426172663</v>
+        <v>320267.4087114041</v>
       </c>
     </row>
     <row r="4">
@@ -3747,28 +3747,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>178.2713296718658</v>
+        <v>208.4576923488742</v>
       </c>
       <c r="AB4" t="n">
-        <v>243.9186980329328</v>
+        <v>285.2210111759275</v>
       </c>
       <c r="AC4" t="n">
-        <v>220.6394398347832</v>
+        <v>257.9999181795843</v>
       </c>
       <c r="AD4" t="n">
-        <v>178271.3296718658</v>
+        <v>208457.6923488742</v>
       </c>
       <c r="AE4" t="n">
-        <v>243918.6980329328</v>
+        <v>285221.0111759275</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.493355096101973e-06</v>
+        <v>7.781551948857733e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.665277777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>220639.4398347832</v>
+        <v>257999.9181795843</v>
       </c>
     </row>
     <row r="5">
@@ -3853,28 +3853,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>160.4782708891277</v>
+        <v>180.5741552308271</v>
       </c>
       <c r="AB5" t="n">
-        <v>219.5734500320499</v>
+        <v>247.0695255561955</v>
       </c>
       <c r="AC5" t="n">
-        <v>198.6176681343266</v>
+        <v>223.489556801441</v>
       </c>
       <c r="AD5" t="n">
-        <v>160478.2708891277</v>
+        <v>180574.1552308271</v>
       </c>
       <c r="AE5" t="n">
-        <v>219573.4500320499</v>
+        <v>247069.5255561955</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.736177973432129e-06</v>
+        <v>8.202070424229267e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.425000000000001</v>
       </c>
       <c r="AH5" t="n">
-        <v>198617.6681343266</v>
+        <v>223489.556801441</v>
       </c>
     </row>
     <row r="6">
@@ -3959,28 +3959,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>159.8608241246454</v>
+        <v>179.9567084663448</v>
       </c>
       <c r="AB6" t="n">
-        <v>218.7286321290569</v>
+        <v>246.2247076532026</v>
       </c>
       <c r="AC6" t="n">
-        <v>197.8534784662857</v>
+        <v>222.7253671334001</v>
       </c>
       <c r="AD6" t="n">
-        <v>159860.8241246454</v>
+        <v>179956.7084663448</v>
       </c>
       <c r="AE6" t="n">
-        <v>218728.6321290569</v>
+        <v>246224.7076532026</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.758966198712959e-06</v>
+        <v>8.241534867847107e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.404166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>197853.4784662857</v>
+        <v>222725.3671334001</v>
       </c>
     </row>
   </sheetData>
@@ -4256,28 +4256,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>167.8136138785611</v>
+        <v>194.9891185161146</v>
       </c>
       <c r="AB2" t="n">
-        <v>229.6099899226809</v>
+        <v>266.7927142664136</v>
       </c>
       <c r="AC2" t="n">
-        <v>207.6963347441713</v>
+        <v>241.3303920628313</v>
       </c>
       <c r="AD2" t="n">
-        <v>167813.6138785611</v>
+        <v>194989.1185161146</v>
       </c>
       <c r="AE2" t="n">
-        <v>229609.9899226809</v>
+        <v>266792.7142664135</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.419142316791023e-06</v>
+        <v>8.361968217364399e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.293055555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>207696.3347441712</v>
+        <v>241330.3920628313</v>
       </c>
     </row>
     <row r="3">
@@ -4362,28 +4362,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>135.4561945643851</v>
+        <v>162.7169505479592</v>
       </c>
       <c r="AB3" t="n">
-        <v>185.3371413084559</v>
+        <v>222.6365103048378</v>
       </c>
       <c r="AC3" t="n">
-        <v>167.6488246643405</v>
+        <v>201.3883942337129</v>
       </c>
       <c r="AD3" t="n">
-        <v>135456.1945643851</v>
+        <v>162716.9505479592</v>
       </c>
       <c r="AE3" t="n">
-        <v>185337.1413084559</v>
+        <v>222636.5103048378</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.890661198241175e-06</v>
+        <v>9.254183407083945e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.781944444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>167648.8246643405</v>
+        <v>201388.3942337129</v>
       </c>
     </row>
   </sheetData>
@@ -4659,28 +4659,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>251.0257417902144</v>
+        <v>279.4303827811144</v>
       </c>
       <c r="AB2" t="n">
-        <v>343.464494391341</v>
+        <v>382.3289773195718</v>
       </c>
       <c r="AC2" t="n">
-        <v>310.6847251021792</v>
+        <v>345.8400363262809</v>
       </c>
       <c r="AD2" t="n">
-        <v>251025.7417902144</v>
+        <v>279430.3827811144</v>
       </c>
       <c r="AE2" t="n">
-        <v>343464.4943913409</v>
+        <v>382328.9773195718</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.614174698575093e-06</v>
+        <v>6.584241393208509e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.191666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>310684.7251021792</v>
+        <v>345840.0363262809</v>
       </c>
     </row>
     <row r="3">
@@ -4765,28 +4765,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>145.4780705297011</v>
+        <v>173.8826220120465</v>
       </c>
       <c r="AB3" t="n">
-        <v>199.0495141381577</v>
+        <v>237.9138745966537</v>
       </c>
       <c r="AC3" t="n">
-        <v>180.0525078766161</v>
+        <v>215.2077083194381</v>
       </c>
       <c r="AD3" t="n">
-        <v>145478.0705297011</v>
+        <v>173882.6220120465</v>
       </c>
       <c r="AE3" t="n">
-        <v>199049.5141381577</v>
+        <v>237913.8745966537</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.84225946844395e-06</v>
+        <v>8.821545134869758e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.620833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>180052.5078766161</v>
+        <v>215207.7083194381</v>
       </c>
     </row>
     <row r="4">
@@ -4871,28 +4871,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>143.5746348667541</v>
+        <v>162.6532372792704</v>
       </c>
       <c r="AB4" t="n">
-        <v>196.44514949046</v>
+        <v>222.5493349997867</v>
       </c>
       <c r="AC4" t="n">
-        <v>177.6967001356451</v>
+        <v>201.3095388174245</v>
       </c>
       <c r="AD4" t="n">
-        <v>143574.6348667541</v>
+        <v>162653.2372792704</v>
       </c>
       <c r="AE4" t="n">
-        <v>196445.14949046</v>
+        <v>222549.3349997867</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.891395747443032e-06</v>
+        <v>8.9110607640455e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.574999999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>177696.7001356451</v>
+        <v>201309.5388174245</v>
       </c>
     </row>
   </sheetData>
@@ -5168,28 +5168,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>139.8519140385228</v>
+        <v>157.4573034812082</v>
       </c>
       <c r="AB2" t="n">
-        <v>191.3515586184246</v>
+        <v>215.4400291488606</v>
       </c>
       <c r="AC2" t="n">
-        <v>173.0892344275355</v>
+        <v>194.878735138935</v>
       </c>
       <c r="AD2" t="n">
-        <v>139851.9140385228</v>
+        <v>157457.3034812082</v>
       </c>
       <c r="AE2" t="n">
-        <v>191351.5586184246</v>
+        <v>215440.0291488606</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.771019482985924e-06</v>
+        <v>9.349660961943733e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.091666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>173089.2344275355</v>
+        <v>194878.735138935</v>
       </c>
     </row>
     <row r="3">
@@ -5274,28 +5274,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>140.7872926923655</v>
+        <v>158.3926821350509</v>
       </c>
       <c r="AB3" t="n">
-        <v>192.6313849586053</v>
+        <v>216.7198554890413</v>
       </c>
       <c r="AC3" t="n">
-        <v>174.2469159380573</v>
+        <v>196.0364166494569</v>
       </c>
       <c r="AD3" t="n">
-        <v>140787.2926923655</v>
+        <v>158392.6821350509</v>
       </c>
       <c r="AE3" t="n">
-        <v>192631.3849586053</v>
+        <v>216719.8554890413</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.771719071604713e-06</v>
+        <v>9.351031930228778e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.090277777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>174246.9159380573</v>
+        <v>196036.4166494569</v>
       </c>
     </row>
   </sheetData>
@@ -5571,28 +5571,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>546.9106660217089</v>
+        <v>597.7038576172176</v>
       </c>
       <c r="AB2" t="n">
-        <v>748.3073012466193</v>
+        <v>817.8047868250572</v>
       </c>
       <c r="AC2" t="n">
-        <v>676.8899026715346</v>
+        <v>739.7546457667003</v>
       </c>
       <c r="AD2" t="n">
-        <v>546910.666021709</v>
+        <v>597703.8576172176</v>
       </c>
       <c r="AE2" t="n">
-        <v>748307.3012466193</v>
+        <v>817804.7868250572</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.326700828630236e-06</v>
+        <v>4.003045050642788e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.927777777777777</v>
       </c>
       <c r="AH2" t="n">
-        <v>676889.9026715347</v>
+        <v>739754.6457667003</v>
       </c>
     </row>
     <row r="3">
@@ -5677,28 +5677,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>241.0098509491469</v>
+        <v>271.3663782186059</v>
       </c>
       <c r="AB3" t="n">
-        <v>329.7603106726809</v>
+        <v>371.2954505183747</v>
       </c>
       <c r="AC3" t="n">
-        <v>298.2884494436811</v>
+        <v>335.8595338373379</v>
       </c>
       <c r="AD3" t="n">
-        <v>241009.8509491469</v>
+        <v>271366.3782186059</v>
       </c>
       <c r="AE3" t="n">
-        <v>329760.3106726808</v>
+        <v>371295.4505183747</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.838899329516031e-06</v>
+        <v>6.604754153107866e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.411111111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>298288.4494436811</v>
+        <v>335859.5338373379</v>
       </c>
     </row>
     <row r="4">
@@ -5783,28 +5783,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>187.8987023506299</v>
+        <v>218.3404809661062</v>
       </c>
       <c r="AB4" t="n">
-        <v>257.0912940617179</v>
+        <v>298.7430785598801</v>
       </c>
       <c r="AC4" t="n">
-        <v>232.5548617864399</v>
+        <v>270.2314584307575</v>
       </c>
       <c r="AD4" t="n">
-        <v>187898.7023506299</v>
+        <v>218340.4809661061</v>
       </c>
       <c r="AE4" t="n">
-        <v>257091.2940617179</v>
+        <v>298743.0785598801</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.378959539851171e-06</v>
+        <v>7.533917595794188e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.743055555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>232554.8617864399</v>
+        <v>270231.4584307575</v>
       </c>
     </row>
     <row r="5">
@@ -5889,28 +5889,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>166.8596556025228</v>
+        <v>187.1258172365341</v>
       </c>
       <c r="AB5" t="n">
-        <v>228.3047421237371</v>
+        <v>256.0337985513278</v>
       </c>
       <c r="AC5" t="n">
-        <v>206.5156579632314</v>
+        <v>231.5982921633568</v>
       </c>
       <c r="AD5" t="n">
-        <v>166859.6556025228</v>
+        <v>187125.8172365341</v>
       </c>
       <c r="AE5" t="n">
-        <v>228304.7421237371</v>
+        <v>256033.7985513278</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.665216876484087e-06</v>
+        <v>8.026417963919811e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.452777777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>206515.6579632314</v>
+        <v>231598.2921633568</v>
       </c>
     </row>
     <row r="6">
@@ -5995,28 +5995,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>162.2371542199578</v>
+        <v>182.5033158539691</v>
       </c>
       <c r="AB6" t="n">
-        <v>221.9800318017465</v>
+        <v>249.7090882293371</v>
       </c>
       <c r="AC6" t="n">
-        <v>200.7945691175829</v>
+        <v>225.8772033177083</v>
       </c>
       <c r="AD6" t="n">
-        <v>162237.1542199578</v>
+        <v>182503.3158539691</v>
       </c>
       <c r="AE6" t="n">
-        <v>221980.0318017465</v>
+        <v>249709.0882293372</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.733266556822633e-06</v>
+        <v>8.143496160104323e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.388888888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>200794.5691175829</v>
+        <v>225877.2033177083</v>
       </c>
     </row>
     <row r="7">
@@ -6101,28 +6101,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>162.8473600427643</v>
+        <v>183.1135216767756</v>
       </c>
       <c r="AB7" t="n">
-        <v>222.8149423288909</v>
+        <v>250.5439987564816</v>
       </c>
       <c r="AC7" t="n">
-        <v>201.5497969558212</v>
+        <v>226.6324311559466</v>
       </c>
       <c r="AD7" t="n">
-        <v>162847.3600427643</v>
+        <v>183113.5216767756</v>
       </c>
       <c r="AE7" t="n">
-        <v>222814.9423288909</v>
+        <v>250543.9987564816</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.73281787761161e-06</v>
+        <v>8.142724215953655e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.388888888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>201549.7969558212</v>
+        <v>226632.4311559466</v>
       </c>
     </row>
   </sheetData>
@@ -6398,28 +6398,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>138.4045297645418</v>
+        <v>164.0863640127131</v>
       </c>
       <c r="AB2" t="n">
-        <v>189.3711836006773</v>
+        <v>224.5102022215714</v>
       </c>
       <c r="AC2" t="n">
-        <v>171.2978636220076</v>
+        <v>203.083263623657</v>
       </c>
       <c r="AD2" t="n">
-        <v>138404.5297645418</v>
+        <v>164086.3640127131</v>
       </c>
       <c r="AE2" t="n">
-        <v>189371.1836006774</v>
+        <v>224510.2022215714</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.640226730718854e-06</v>
+        <v>9.302078665540695e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.356944444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>171297.8636220075</v>
+        <v>203083.2636236571</v>
       </c>
     </row>
   </sheetData>
@@ -6695,28 +6695,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>353.7207488149401</v>
+        <v>383.163593556436</v>
       </c>
       <c r="AB2" t="n">
-        <v>483.9763335866901</v>
+        <v>524.261332688641</v>
       </c>
       <c r="AC2" t="n">
-        <v>437.786311574226</v>
+        <v>474.2265669022381</v>
       </c>
       <c r="AD2" t="n">
-        <v>353720.7488149401</v>
+        <v>383163.593556436</v>
       </c>
       <c r="AE2" t="n">
-        <v>483976.3335866901</v>
+        <v>524261.332688641</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.998150962409031e-06</v>
+        <v>5.309948137729757e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.202777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>437786.311574226</v>
+        <v>474226.5669022381</v>
       </c>
     </row>
     <row r="3">
@@ -6801,28 +6801,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>180.4370697308209</v>
+        <v>209.7944841091937</v>
       </c>
       <c r="AB3" t="n">
-        <v>246.8819591273017</v>
+        <v>287.050068637486</v>
       </c>
       <c r="AC3" t="n">
-        <v>223.3198914492696</v>
+        <v>259.6544129641105</v>
       </c>
       <c r="AD3" t="n">
-        <v>180437.0697308209</v>
+        <v>209794.4841091937</v>
       </c>
       <c r="AE3" t="n">
-        <v>246881.9591273017</v>
+        <v>287050.068637486</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.374078660073045e-06</v>
+        <v>7.746818331214386e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.9375</v>
       </c>
       <c r="AH3" t="n">
-        <v>223319.8914492696</v>
+        <v>259654.4129641105</v>
       </c>
     </row>
     <row r="4">
@@ -6907,28 +6907,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>152.1668811946476</v>
+        <v>171.7101333372567</v>
       </c>
       <c r="AB4" t="n">
-        <v>208.2014399794331</v>
+        <v>234.9413797483717</v>
       </c>
       <c r="AC4" t="n">
-        <v>188.3309867604116</v>
+        <v>212.5189042075525</v>
       </c>
       <c r="AD4" t="n">
-        <v>152166.8811946476</v>
+        <v>171710.1333372566</v>
       </c>
       <c r="AE4" t="n">
-        <v>208201.4399794331</v>
+        <v>234941.3797483717</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.816291155513937e-06</v>
+        <v>8.530009520079828e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.483333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>188330.9867604116</v>
+        <v>212518.9042075526</v>
       </c>
     </row>
     <row r="5">
@@ -7013,28 +7013,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>151.7819252356001</v>
+        <v>171.3251773782091</v>
       </c>
       <c r="AB5" t="n">
-        <v>207.6747262532062</v>
+        <v>234.4146660221449</v>
       </c>
       <c r="AC5" t="n">
-        <v>187.8545418529683</v>
+        <v>212.0424593001092</v>
       </c>
       <c r="AD5" t="n">
-        <v>151781.9252356001</v>
+        <v>171325.1773782091</v>
       </c>
       <c r="AE5" t="n">
-        <v>207674.7262532062</v>
+        <v>234414.6660221449</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.837126765355386e-06</v>
+        <v>8.566910933338606e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.465277777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>187854.5418529683</v>
+        <v>212042.4593001092</v>
       </c>
     </row>
   </sheetData>
@@ -7310,28 +7310,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>434.21164802669</v>
+        <v>484.051924786675</v>
       </c>
       <c r="AB2" t="n">
-        <v>594.1075328960619</v>
+        <v>662.3011983569006</v>
       </c>
       <c r="AC2" t="n">
-        <v>537.4067437916203</v>
+        <v>599.0921015312872</v>
       </c>
       <c r="AD2" t="n">
-        <v>434211.64802669</v>
+        <v>484051.924786675</v>
       </c>
       <c r="AE2" t="n">
-        <v>594107.5328960619</v>
+        <v>662301.1983569006</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.645080821953203e-06</v>
+        <v>4.612789987133549e-06</v>
       </c>
       <c r="AG2" t="n">
         <v>8</v>
       </c>
       <c r="AH2" t="n">
-        <v>537406.7437916204</v>
+        <v>599092.1015312872</v>
       </c>
     </row>
     <row r="3">
@@ -7416,28 +7416,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>215.4495060284892</v>
+        <v>235.4539789246912</v>
       </c>
       <c r="AB3" t="n">
-        <v>294.7875191094216</v>
+        <v>322.1585214610496</v>
       </c>
       <c r="AC3" t="n">
-        <v>266.653412022587</v>
+        <v>291.4121643252273</v>
       </c>
       <c r="AD3" t="n">
-        <v>215449.5060284892</v>
+        <v>235453.9789246912</v>
       </c>
       <c r="AE3" t="n">
-        <v>294787.5191094216</v>
+        <v>322158.5214610496</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.088129177300555e-06</v>
+        <v>7.129340313025094e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.17638888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>266653.412022587</v>
+        <v>291412.1643252273</v>
       </c>
     </row>
     <row r="4">
@@ -7522,28 +7522,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>168.4685172670211</v>
+        <v>188.5582415092437</v>
       </c>
       <c r="AB4" t="n">
-        <v>230.5060576310698</v>
+        <v>257.9937046353469</v>
       </c>
       <c r="AC4" t="n">
-        <v>208.5068830081107</v>
+        <v>233.3711475614632</v>
       </c>
       <c r="AD4" t="n">
-        <v>168468.5172670211</v>
+        <v>188558.2415092437</v>
       </c>
       <c r="AE4" t="n">
-        <v>230506.0576310698</v>
+        <v>257993.7046353469</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.610685750235672e-06</v>
+        <v>8.040633346999755e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.588888888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>208506.8830081107</v>
+        <v>233371.1475614632</v>
       </c>
     </row>
     <row r="5">
@@ -7628,28 +7628,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>156.9564145437625</v>
+        <v>176.8755465853929</v>
       </c>
       <c r="AB5" t="n">
-        <v>214.7546908069874</v>
+        <v>242.0089260364177</v>
       </c>
       <c r="AC5" t="n">
-        <v>194.2588045265315</v>
+        <v>218.9119337972331</v>
       </c>
       <c r="AD5" t="n">
-        <v>156956.4145437625</v>
+        <v>176875.5465853929</v>
       </c>
       <c r="AE5" t="n">
-        <v>214754.6908069874</v>
+        <v>242008.9260364177</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.778117141972025e-06</v>
+        <v>8.332619074212044e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.427777777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>194258.8045265315</v>
+        <v>218911.9337972331</v>
       </c>
     </row>
     <row r="6">
@@ -7734,28 +7734,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>157.0249595256813</v>
+        <v>176.9440915673117</v>
       </c>
       <c r="AB6" t="n">
-        <v>214.8484770752398</v>
+        <v>242.1027123046701</v>
       </c>
       <c r="AC6" t="n">
-        <v>194.3436399649719</v>
+        <v>218.9967692356734</v>
       </c>
       <c r="AD6" t="n">
-        <v>157024.9595256813</v>
+        <v>176944.0915673117</v>
       </c>
       <c r="AE6" t="n">
-        <v>214848.4770752398</v>
+        <v>242102.7123046701</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.79106679465409e-06</v>
+        <v>8.355202137736198e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.416666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>194343.6399649719</v>
+        <v>218996.7692356734</v>
       </c>
     </row>
   </sheetData>
@@ -8031,28 +8031,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>705.8777892024352</v>
+        <v>757.4796644756614</v>
       </c>
       <c r="AB2" t="n">
-        <v>965.8131323170013</v>
+        <v>1036.417094579898</v>
       </c>
       <c r="AC2" t="n">
-        <v>873.6372824959108</v>
+        <v>937.5029016937201</v>
       </c>
       <c r="AD2" t="n">
-        <v>705877.7892024352</v>
+        <v>757479.6644756614</v>
       </c>
       <c r="AE2" t="n">
-        <v>965813.1323170013</v>
+        <v>1036417.094579898</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.029445783988565e-06</v>
+        <v>3.449923328463099e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.06388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>873637.2824959108</v>
+        <v>937502.9016937201</v>
       </c>
     </row>
     <row r="3">
@@ -8137,28 +8137,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>268.557895263649</v>
+        <v>299.5701712351971</v>
       </c>
       <c r="AB3" t="n">
-        <v>367.452760237879</v>
+        <v>409.8851243872068</v>
       </c>
       <c r="AC3" t="n">
-        <v>332.3835845239632</v>
+        <v>370.7662633930761</v>
       </c>
       <c r="AD3" t="n">
-        <v>268557.8952636489</v>
+        <v>299570.171235197</v>
       </c>
       <c r="AE3" t="n">
-        <v>367452.7602378791</v>
+        <v>409885.1243872068</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.60435806183202e-06</v>
+        <v>6.127169821314326e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>332383.5845239632</v>
+        <v>370766.2633930761</v>
       </c>
     </row>
     <row r="4">
@@ -8243,28 +8243,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>207.5334949920016</v>
+        <v>238.4604301089776</v>
       </c>
       <c r="AB4" t="n">
-        <v>283.9564835795453</v>
+        <v>326.2720806066535</v>
       </c>
       <c r="AC4" t="n">
-        <v>256.8560753222247</v>
+        <v>295.1331311593926</v>
       </c>
       <c r="AD4" t="n">
-        <v>207533.4949920016</v>
+        <v>238460.4301089776</v>
       </c>
       <c r="AE4" t="n">
-        <v>283956.4835795453</v>
+        <v>326272.0806066535</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.166532631224693e-06</v>
+        <v>7.082829330387178e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.901388888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>256856.0753222247</v>
+        <v>295133.1311593927</v>
       </c>
     </row>
     <row r="5">
@@ -8349,28 +8349,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>183.4302144750981</v>
+        <v>204.1904059773681</v>
       </c>
       <c r="AB5" t="n">
-        <v>250.9773118146464</v>
+        <v>279.3823217030479</v>
       </c>
       <c r="AC5" t="n">
-        <v>227.024389423999</v>
+        <v>252.7184650353422</v>
       </c>
       <c r="AD5" t="n">
-        <v>183430.2144750981</v>
+        <v>204190.4059773681</v>
       </c>
       <c r="AE5" t="n">
-        <v>250977.3118146464</v>
+        <v>279382.3217030478</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.480926884261977e-06</v>
+        <v>7.617278723637966e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.558333333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>227024.389423999</v>
+        <v>252718.4650353422</v>
       </c>
     </row>
     <row r="6">
@@ -8455,28 +8455,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>170.2305927320261</v>
+        <v>190.820192033704</v>
       </c>
       <c r="AB6" t="n">
-        <v>232.9170070195715</v>
+        <v>261.0886051331261</v>
       </c>
       <c r="AC6" t="n">
-        <v>210.6877347707633</v>
+        <v>236.1706750994556</v>
       </c>
       <c r="AD6" t="n">
-        <v>170230.5927320261</v>
+        <v>190820.192033704</v>
       </c>
       <c r="AE6" t="n">
-        <v>232917.0070195715</v>
+        <v>261088.6051331261</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.642829631031879e-06</v>
+        <v>7.892502662819031e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.398611111111112</v>
       </c>
       <c r="AH6" t="n">
-        <v>210687.7347707633</v>
+        <v>236170.6750994556</v>
       </c>
     </row>
     <row r="7">
@@ -8561,28 +8561,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>168.4246966837731</v>
+        <v>189.014295985451</v>
       </c>
       <c r="AB7" t="n">
-        <v>230.4461003758422</v>
+        <v>258.6176984893969</v>
       </c>
       <c r="AC7" t="n">
-        <v>208.4526479891715</v>
+        <v>233.9355883178638</v>
       </c>
       <c r="AD7" t="n">
-        <v>168424.6966837731</v>
+        <v>189014.295985451</v>
       </c>
       <c r="AE7" t="n">
-        <v>230446.1003758422</v>
+        <v>258617.6984893969</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.670033998109473e-06</v>
+        <v>7.938748283844005e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.373611111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>208452.6479891715</v>
+        <v>233935.5883178638</v>
       </c>
     </row>
   </sheetData>
@@ -8858,28 +8858,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>278.1922330457959</v>
+        <v>306.9314207832373</v>
       </c>
       <c r="AB2" t="n">
-        <v>380.6348862283978</v>
+        <v>419.9571107742453</v>
       </c>
       <c r="AC2" t="n">
-        <v>344.3076269111769</v>
+        <v>379.8769935354574</v>
       </c>
       <c r="AD2" t="n">
-        <v>278192.2330457959</v>
+        <v>306931.4207832373</v>
       </c>
       <c r="AE2" t="n">
-        <v>380634.8862283978</v>
+        <v>419957.1107742453</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.401901243270969e-06</v>
+        <v>6.134432967332044e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.494444444444444</v>
       </c>
       <c r="AH2" t="n">
-        <v>344307.6269111769</v>
+        <v>379876.9935354574</v>
       </c>
     </row>
     <row r="3">
@@ -8964,28 +8964,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>155.9686956280383</v>
+        <v>184.7077938569282</v>
       </c>
       <c r="AB3" t="n">
-        <v>213.403250211411</v>
+        <v>252.7253522876899</v>
       </c>
       <c r="AC3" t="n">
-        <v>193.0363435246378</v>
+        <v>228.605599367686</v>
       </c>
       <c r="AD3" t="n">
-        <v>155968.6956280383</v>
+        <v>184707.7938569282</v>
       </c>
       <c r="AE3" t="n">
-        <v>213403.250211411</v>
+        <v>252725.3522876899</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.69622730552558e-06</v>
+        <v>8.468409146822014e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.705555555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>193036.3435246378</v>
+        <v>228605.599367686</v>
       </c>
     </row>
     <row r="4">
@@ -9070,28 +9070,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>146.0195084191352</v>
+        <v>165.3211419960145</v>
       </c>
       <c r="AB4" t="n">
-        <v>199.7903333450349</v>
+        <v>226.1996799328835</v>
       </c>
       <c r="AC4" t="n">
-        <v>180.7226243381354</v>
+        <v>204.6114999533989</v>
       </c>
       <c r="AD4" t="n">
-        <v>146019.5084191352</v>
+        <v>165321.1419960145</v>
       </c>
       <c r="AE4" t="n">
-        <v>199790.3333450349</v>
+        <v>226199.6799328835</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.876472073044567e-06</v>
+        <v>8.793433115770164e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.530555555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>180722.6243381354</v>
+        <v>204611.4999533989</v>
       </c>
     </row>
   </sheetData>
@@ -9367,28 +9367,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>191.0042412163449</v>
+        <v>218.7594027147732</v>
       </c>
       <c r="AB2" t="n">
-        <v>261.3404293444923</v>
+        <v>299.3162657779294</v>
       </c>
       <c r="AC2" t="n">
-        <v>236.3984655615265</v>
+        <v>270.7499414651896</v>
       </c>
       <c r="AD2" t="n">
-        <v>191004.2412163449</v>
+        <v>218759.4027147733</v>
       </c>
       <c r="AE2" t="n">
-        <v>261340.4293444923</v>
+        <v>299316.2657779294</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.120342234705511e-06</v>
+        <v>7.68724157248754e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.586111111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>236398.4655615265</v>
+        <v>270749.9414651896</v>
       </c>
     </row>
     <row r="3">
@@ -9473,28 +9473,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>138.2492720988633</v>
+        <v>165.9190927427201</v>
       </c>
       <c r="AB3" t="n">
-        <v>189.1587532130114</v>
+        <v>227.0178225242508</v>
       </c>
       <c r="AC3" t="n">
-        <v>171.1057072923924</v>
+        <v>205.3515601641167</v>
       </c>
       <c r="AD3" t="n">
-        <v>138249.2720988633</v>
+        <v>165919.0927427201</v>
       </c>
       <c r="AE3" t="n">
-        <v>189158.7532130113</v>
+        <v>227017.8225242508</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.892077827812958e-06</v>
+        <v>9.127053509548127e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.704166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>171105.7072923924</v>
+        <v>205351.5601641167</v>
       </c>
     </row>
   </sheetData>
@@ -16623,28 +16623,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>147.9814378417121</v>
+        <v>165.9151726432484</v>
       </c>
       <c r="AB2" t="n">
-        <v>202.4747317352208</v>
+        <v>227.012458871211</v>
       </c>
       <c r="AC2" t="n">
-        <v>183.1508275135396</v>
+        <v>205.3467084105951</v>
       </c>
       <c r="AD2" t="n">
-        <v>147981.4378417121</v>
+        <v>165915.1726432483</v>
       </c>
       <c r="AE2" t="n">
-        <v>202474.7317352208</v>
+        <v>227012.458871211</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.712637087330463e-06</v>
+        <v>9.062575880521725e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.052777777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>183150.8275135396</v>
+        <v>205346.7084105951</v>
       </c>
     </row>
     <row r="3">
@@ -16729,28 +16729,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>133.8620197199173</v>
+        <v>160.6771468048234</v>
       </c>
       <c r="AB3" t="n">
-        <v>183.1559209562256</v>
+        <v>219.8455608336907</v>
       </c>
       <c r="AC3" t="n">
-        <v>165.6757769211644</v>
+        <v>198.8638090629689</v>
       </c>
       <c r="AD3" t="n">
-        <v>133862.0197199173</v>
+        <v>160677.1468048234</v>
       </c>
       <c r="AE3" t="n">
-        <v>183155.9209562256</v>
+        <v>219845.5608336907</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.841205630326274e-06</v>
+        <v>9.30981795648809e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.918055555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>165675.7769211644</v>
+        <v>198863.8090629689</v>
       </c>
     </row>
   </sheetData>
@@ -17026,28 +17026,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>138.2905441031136</v>
+        <v>163.4967443534211</v>
       </c>
       <c r="AB2" t="n">
-        <v>189.2152233900188</v>
+        <v>223.7034585915449</v>
       </c>
       <c r="AC2" t="n">
-        <v>171.1567880349627</v>
+        <v>202.3535144734083</v>
       </c>
       <c r="AD2" t="n">
-        <v>138290.5441031136</v>
+        <v>163496.7443534211</v>
       </c>
       <c r="AE2" t="n">
-        <v>189215.2233900188</v>
+        <v>223703.4585915449</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.383954087149174e-06</v>
+        <v>9.042340725039307e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.829166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>171156.7880349627</v>
+        <v>202353.5144734083</v>
       </c>
     </row>
   </sheetData>
@@ -17323,28 +17323,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>390.3957488162102</v>
+        <v>430.0366526969597</v>
       </c>
       <c r="AB2" t="n">
-        <v>534.156686575236</v>
+        <v>588.3951200981303</v>
       </c>
       <c r="AC2" t="n">
-        <v>483.1775221021129</v>
+        <v>532.2395156537016</v>
       </c>
       <c r="AD2" t="n">
-        <v>390395.7488162102</v>
+        <v>430036.6526969597</v>
       </c>
       <c r="AE2" t="n">
-        <v>534156.686575236</v>
+        <v>588395.1200981303</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.822586416643359e-06</v>
+        <v>4.959172989286447e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.570833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>483177.5221021129</v>
+        <v>532239.5156537016</v>
       </c>
     </row>
     <row r="3">
@@ -17429,28 +17429,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>202.6221874527611</v>
+        <v>222.4427289016866</v>
       </c>
       <c r="AB3" t="n">
-        <v>277.236615932763</v>
+        <v>304.3559551637446</v>
       </c>
       <c r="AC3" t="n">
-        <v>250.7775424122558</v>
+        <v>275.3086499692728</v>
       </c>
       <c r="AD3" t="n">
-        <v>202622.1874527611</v>
+        <v>222442.7289016866</v>
       </c>
       <c r="AE3" t="n">
-        <v>277236.615932763</v>
+        <v>304355.9551637446</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.230494490797673e-06</v>
+        <v>7.432811936733623e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.051388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>250777.5424122558</v>
+        <v>275308.6499692728</v>
       </c>
     </row>
     <row r="4">
@@ -17535,28 +17535,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>158.7414843815985</v>
+        <v>178.6472771765446</v>
       </c>
       <c r="AB4" t="n">
-        <v>217.1971021108366</v>
+        <v>244.4330859944673</v>
       </c>
       <c r="AC4" t="n">
-        <v>196.4681155234879</v>
+        <v>221.1047353312172</v>
       </c>
       <c r="AD4" t="n">
-        <v>158741.4843815985</v>
+        <v>178647.2771765446</v>
       </c>
       <c r="AE4" t="n">
-        <v>217197.1021108366</v>
+        <v>244433.0859944673</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.738880094842029e-06</v>
+        <v>8.326025388358263e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.509722222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>196468.1155234879</v>
+        <v>221104.7353312172</v>
       </c>
     </row>
     <row r="5">
@@ -17641,28 +17641,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>154.2739778042716</v>
+        <v>174.0091783986256</v>
       </c>
       <c r="AB5" t="n">
-        <v>211.0844625192609</v>
+        <v>238.0870346280449</v>
       </c>
       <c r="AC5" t="n">
-        <v>190.9388576753868</v>
+        <v>215.364342200465</v>
       </c>
       <c r="AD5" t="n">
-        <v>154273.9778042716</v>
+        <v>174009.1783986256</v>
       </c>
       <c r="AE5" t="n">
-        <v>211084.4625192609</v>
+        <v>238087.0346280449</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.811198870235747e-06</v>
+        <v>8.453086623910195e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.441666666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>190938.8576753868</v>
+        <v>215364.342200465</v>
       </c>
     </row>
   </sheetData>
@@ -17938,28 +17938,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>620.0119758427177</v>
+        <v>671.1309175042034</v>
       </c>
       <c r="AB2" t="n">
-        <v>848.3277383459036</v>
+        <v>918.2709295356898</v>
       </c>
       <c r="AC2" t="n">
-        <v>767.3645296336285</v>
+        <v>830.6324408221469</v>
       </c>
       <c r="AD2" t="n">
-        <v>620011.9758427177</v>
+        <v>671130.9175042034</v>
       </c>
       <c r="AE2" t="n">
-        <v>848327.7383459037</v>
+        <v>918270.9295356898</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.17725208161853e-06</v>
+        <v>3.722858421380056e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.458333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>767364.5296336286</v>
+        <v>830632.4408221469</v>
       </c>
     </row>
     <row r="3">
@@ -18044,28 +18044,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>254.0182138834437</v>
+        <v>284.7919342006936</v>
       </c>
       <c r="AB3" t="n">
-        <v>347.5589267278464</v>
+        <v>389.6648885067948</v>
       </c>
       <c r="AC3" t="n">
-        <v>314.3883905630619</v>
+        <v>352.4758184458115</v>
       </c>
       <c r="AD3" t="n">
-        <v>254018.2138834437</v>
+        <v>284791.9342006936</v>
       </c>
       <c r="AE3" t="n">
-        <v>347558.9267278464</v>
+        <v>389664.8885067948</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.724637175855181e-06</v>
+        <v>6.368714488223032e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.529166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>314388.3905630619</v>
+        <v>352475.8184458115</v>
       </c>
     </row>
     <row r="4">
@@ -18150,28 +18150,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>197.4323856988121</v>
+        <v>228.1207651614866</v>
       </c>
       <c r="AB4" t="n">
-        <v>270.1357002151192</v>
+        <v>312.1248948716797</v>
       </c>
       <c r="AC4" t="n">
-        <v>244.3543281245038</v>
+        <v>282.3361329752604</v>
       </c>
       <c r="AD4" t="n">
-        <v>197432.3856988121</v>
+        <v>228120.7651614866</v>
       </c>
       <c r="AE4" t="n">
-        <v>270135.7002151192</v>
+        <v>312124.8948716797</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.276067337360174e-06</v>
+        <v>7.311598611698409e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.816666666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>244354.3281245038</v>
+        <v>282336.1329752604</v>
       </c>
     </row>
     <row r="5">
@@ -18256,28 +18256,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>175.2194410135795</v>
+        <v>195.820595412982</v>
       </c>
       <c r="AB5" t="n">
-        <v>239.7429693308424</v>
+        <v>267.9303776388788</v>
       </c>
       <c r="AC5" t="n">
-        <v>216.8622368193469</v>
+        <v>242.3594784397494</v>
       </c>
       <c r="AD5" t="n">
-        <v>175219.4410135795</v>
+        <v>195820.595412982</v>
       </c>
       <c r="AE5" t="n">
-        <v>239742.9693308424</v>
+        <v>267930.3776388788</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.573949347164833e-06</v>
+        <v>7.820943651779623e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.502777777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>216862.2368193469</v>
+        <v>242359.4784397494</v>
       </c>
     </row>
     <row r="6">
@@ -18362,28 +18362,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>165.3933336843831</v>
+        <v>185.8238958831933</v>
       </c>
       <c r="AB6" t="n">
-        <v>226.2984557857818</v>
+        <v>254.2524523189714</v>
       </c>
       <c r="AC6" t="n">
-        <v>204.7008487775294</v>
+        <v>229.9869551152808</v>
       </c>
       <c r="AD6" t="n">
-        <v>165393.3336843831</v>
+        <v>185823.8958831933</v>
       </c>
       <c r="AE6" t="n">
-        <v>226298.4557857818</v>
+        <v>254252.4523189714</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.699982054150379e-06</v>
+        <v>8.036445535338124e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.381944444444445</v>
       </c>
       <c r="AH6" t="n">
-        <v>204700.8487775294</v>
+        <v>229986.9551152808</v>
       </c>
     </row>
     <row r="7">
@@ -18468,28 +18468,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>165.8108629680869</v>
+        <v>186.2414251668971</v>
       </c>
       <c r="AB7" t="n">
-        <v>226.8697377718371</v>
+        <v>254.8237343050266</v>
       </c>
       <c r="AC7" t="n">
-        <v>205.2176084126351</v>
+        <v>230.5037147503864</v>
       </c>
       <c r="AD7" t="n">
-        <v>165810.8629680869</v>
+        <v>186241.4251668971</v>
       </c>
       <c r="AE7" t="n">
-        <v>226869.7377718371</v>
+        <v>254823.7343050266</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.699982054150379e-06</v>
+        <v>8.036445535338124e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.381944444444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>205217.608412635</v>
+        <v>230503.7147503864</v>
       </c>
     </row>
   </sheetData>
@@ -18765,28 +18765,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>149.7561887696399</v>
+        <v>182.2225617820569</v>
       </c>
       <c r="AB2" t="n">
-        <v>204.9030242512954</v>
+        <v>249.3249481221516</v>
       </c>
       <c r="AC2" t="n">
-        <v>185.3473672000109</v>
+        <v>225.5297250032084</v>
       </c>
       <c r="AD2" t="n">
-        <v>149756.1887696399</v>
+        <v>182222.5617820569</v>
       </c>
       <c r="AE2" t="n">
-        <v>204903.0242512955</v>
+        <v>249324.9481221516</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.866094990252626e-06</v>
+        <v>8.286822250586827e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.844444444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>185347.3672000109</v>
+        <v>225529.7250032084</v>
       </c>
     </row>
   </sheetData>
@@ -19062,28 +19062,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>214.9570869450802</v>
+        <v>243.0918188703181</v>
       </c>
       <c r="AB2" t="n">
-        <v>294.1137695955052</v>
+        <v>332.6089510323681</v>
       </c>
       <c r="AC2" t="n">
-        <v>266.0439642166651</v>
+        <v>300.8652195655325</v>
       </c>
       <c r="AD2" t="n">
-        <v>214957.0869450803</v>
+        <v>243091.8188703181</v>
       </c>
       <c r="AE2" t="n">
-        <v>294113.7695955052</v>
+        <v>332608.9510323681</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.85958946505691e-06</v>
+        <v>7.111033202565598e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.876388888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>266043.9642166651</v>
+        <v>300865.2195655325</v>
       </c>
     </row>
     <row r="3">
@@ -19168,28 +19168,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>140.7559061629915</v>
+        <v>168.8052972336577</v>
       </c>
       <c r="AB3" t="n">
-        <v>192.5884405244399</v>
+        <v>230.9668548391053</v>
       </c>
       <c r="AC3" t="n">
-        <v>174.2080700604157</v>
+        <v>208.9237023773444</v>
       </c>
       <c r="AD3" t="n">
-        <v>140755.9061629915</v>
+        <v>168805.2972336577</v>
       </c>
       <c r="AE3" t="n">
-        <v>192588.4405244399</v>
+        <v>230966.8548391052</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.894746546461426e-06</v>
+        <v>9.018240288288606e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.633333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>174208.0700604157</v>
+        <v>208923.7023773444</v>
       </c>
     </row>
     <row r="4">
@@ -19274,28 +19274,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>140.9396439724233</v>
+        <v>168.9890350430895</v>
       </c>
       <c r="AB4" t="n">
-        <v>192.8398387012446</v>
+        <v>231.2182530159099</v>
       </c>
       <c r="AC4" t="n">
-        <v>174.4354751480657</v>
+        <v>209.1511074649944</v>
       </c>
       <c r="AD4" t="n">
-        <v>140939.6439724233</v>
+        <v>168989.0350430895</v>
       </c>
       <c r="AE4" t="n">
-        <v>192839.8387012446</v>
+        <v>231218.2530159098</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.906014228843019e-06</v>
+        <v>9.03900023290367e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.623611111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>174435.4751480657</v>
+        <v>209151.1074649944</v>
       </c>
     </row>
   </sheetData>
@@ -19571,28 +19571,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>309.7047643895315</v>
+        <v>348.4744804985693</v>
       </c>
       <c r="AB2" t="n">
-        <v>423.7517218476619</v>
+        <v>476.7981578272083</v>
       </c>
       <c r="AC2" t="n">
-        <v>383.3094522537972</v>
+        <v>431.2932108345963</v>
       </c>
       <c r="AD2" t="n">
-        <v>309704.7643895315</v>
+        <v>348474.4804985693</v>
       </c>
       <c r="AE2" t="n">
-        <v>423751.7218476619</v>
+        <v>476798.1578272083</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.190833716796379e-06</v>
+        <v>5.700191573498479e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.843055555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>383309.4522537973</v>
+        <v>431293.2108345962</v>
       </c>
     </row>
     <row r="3">
@@ -19677,28 +19677,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>168.4721215401101</v>
+        <v>197.5280734082452</v>
       </c>
       <c r="AB3" t="n">
-        <v>230.5109891565196</v>
+        <v>270.2666243606095</v>
       </c>
       <c r="AC3" t="n">
-        <v>208.511343875693</v>
+        <v>244.4727570533017</v>
       </c>
       <c r="AD3" t="n">
-        <v>168472.1215401101</v>
+        <v>197528.0734082452</v>
       </c>
       <c r="AE3" t="n">
-        <v>230510.9891565196</v>
+        <v>270266.6243606095</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.523452912833141e-06</v>
+        <v>8.080818514960568e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.827777777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>208511.343875693</v>
+        <v>244472.7570533017</v>
       </c>
     </row>
     <row r="4">
@@ -19783,28 +19783,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>148.7394157510324</v>
+        <v>168.0816928868163</v>
       </c>
       <c r="AB4" t="n">
-        <v>203.5118305503775</v>
+        <v>229.9767874485866</v>
       </c>
       <c r="AC4" t="n">
-        <v>184.0889470733555</v>
+        <v>208.0281256290082</v>
       </c>
       <c r="AD4" t="n">
-        <v>148739.4157510324</v>
+        <v>168081.6928868163</v>
       </c>
       <c r="AE4" t="n">
-        <v>203511.8305503775</v>
+        <v>229976.7874485866</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.858337161011328e-06</v>
+        <v>8.679064785054275e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.494444444444444</v>
       </c>
       <c r="AH4" t="n">
-        <v>184088.9470733555</v>
+        <v>208028.1256290082</v>
       </c>
     </row>
     <row r="5">
@@ -19889,28 +19889,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>149.315762894129</v>
+        <v>168.6580400299129</v>
       </c>
       <c r="AB5" t="n">
-        <v>204.3004141382033</v>
+        <v>230.7653710364124</v>
       </c>
       <c r="AC5" t="n">
-        <v>184.8022693503434</v>
+        <v>208.7414479059962</v>
       </c>
       <c r="AD5" t="n">
-        <v>149315.762894129</v>
+        <v>168658.0400299129</v>
       </c>
       <c r="AE5" t="n">
-        <v>204300.4141382033</v>
+        <v>230765.3710364124</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.85770827040442e-06</v>
+        <v>8.67794131788039e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.495833333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>184802.2693503434</v>
+        <v>208741.4479059962</v>
       </c>
     </row>
   </sheetData>
